--- a/data/processed/Cleaned_Japan_Life_Expectancy_X_train.xlsx
+++ b/data/processed/Cleaned_Japan_Life_Expectancy_X_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Ambulances_100kP</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Socioeconomic_index</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +497,9 @@
       <c r="G2" t="n">
         <v>0.5444444444444444</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.01048641623631552</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +523,9 @@
       <c r="G3" t="n">
         <v>0.1777777777777778</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.3671432313030841</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +549,9 @@
       <c r="G4" t="n">
         <v>0.1333333333333333</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.08294353775117436</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +575,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.9584450898641199</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
       <c r="G6" t="n">
         <v>0.4111111111111111</v>
       </c>
+      <c r="H6" t="n">
+        <v>-0.2232409919406703</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +627,9 @@
       <c r="G7" t="n">
         <v>0.3777777777777778</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.07767704679645382</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,6 +653,9 @@
       <c r="G8" t="n">
         <v>0.688888888888889</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.312608253848642</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -653,6 +679,9 @@
       <c r="G9" t="n">
         <v>0.5333333333333333</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3463847199051141</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -676,6 +705,9 @@
       <c r="G10" t="n">
         <v>0.6444444444444445</v>
       </c>
+      <c r="H10" t="n">
+        <v>-0.4123522490434681</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -699,6 +731,9 @@
       <c r="G11" t="n">
         <v>0.3555555555555555</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.02004938770412479</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -722,6 +757,9 @@
       <c r="G12" t="n">
         <v>0.3333333333333333</v>
       </c>
+      <c r="H12" t="n">
+        <v>0.08322296241857974</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -745,6 +783,9 @@
       <c r="G13" t="n">
         <v>0.4555555555555556</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.191399209693045</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -768,6 +809,9 @@
       <c r="G14" t="n">
         <v>0.1111111111111111</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.3143609398479589</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -791,6 +835,9 @@
       <c r="G15" t="n">
         <v>0.4777777777777779</v>
       </c>
+      <c r="H15" t="n">
+        <v>-0.05856428939171143</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -814,6 +861,9 @@
       <c r="G16" t="n">
         <v>0.1222222222222222</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.3455254492900617</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -837,6 +887,9 @@
       <c r="G17" t="n">
         <v>0.3444444444444444</v>
       </c>
+      <c r="H17" t="n">
+        <v>-0.2447498556311948</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -860,6 +913,9 @@
       <c r="G18" t="n">
         <v>0.4222222222222223</v>
       </c>
+      <c r="H18" t="n">
+        <v>0.06616008897321557</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -883,6 +939,9 @@
       <c r="G19" t="n">
         <v>0.5222222222222221</v>
       </c>
+      <c r="H19" t="n">
+        <v>-0.01860844963734443</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -906,6 +965,9 @@
       <c r="G20" t="n">
         <v>0.611111111111111</v>
       </c>
+      <c r="H20" t="n">
+        <v>-0.2057672496386396</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -929,6 +991,9 @@
       <c r="G21" t="n">
         <v>0.1444444444444444</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.3046389534998648</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -952,6 +1017,9 @@
       <c r="G22" t="n">
         <v>0.7111111111111111</v>
       </c>
+      <c r="H22" t="n">
+        <v>-0.4339570103379418</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -975,6 +1043,9 @@
       <c r="G23" t="n">
         <v>0.3777777777777778</v>
       </c>
+      <c r="H23" t="n">
+        <v>-0.2010335665816321</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -998,6 +1069,9 @@
       <c r="G24" t="n">
         <v>0.2111111111111111</v>
       </c>
+      <c r="H24" t="n">
+        <v>0.3681129494945612</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1021,6 +1095,9 @@
       <c r="G25" t="n">
         <v>0.7222222222222222</v>
       </c>
+      <c r="H25" t="n">
+        <v>-0.4526751429247473</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1044,6 +1121,9 @@
       <c r="G26" t="n">
         <v>0.2333333333333334</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2503103212257962</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1067,6 +1147,9 @@
       <c r="G27" t="n">
         <v>0.2999999999999999</v>
       </c>
+      <c r="H27" t="n">
+        <v>-0.001038809731365054</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1090,6 +1173,9 @@
       <c r="G28" t="n">
         <v>0.2444444444444445</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.08258123619836899</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1113,6 +1199,9 @@
       <c r="G29" t="n">
         <v>0.3777777777777778</v>
       </c>
+      <c r="H29" t="n">
+        <v>0.2337494616669398</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1136,6 +1225,9 @@
       <c r="G30" t="n">
         <v>0.4666666666666667</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.04876570798625002</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1159,6 +1251,9 @@
       <c r="G31" t="n">
         <v>0.08888888888888891</v>
       </c>
+      <c r="H31" t="n">
+        <v>0.694893460133756</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1182,6 +1277,9 @@
       <c r="G32" t="n">
         <v>0.6</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.07087248316723216</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1205,6 +1303,9 @@
       <c r="G33" t="n">
         <v>0.4777777777777779</v>
       </c>
+      <c r="H33" t="n">
+        <v>-0.1668770256796987</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1228,6 +1329,9 @@
       <c r="G34" t="n">
         <v>0.5333333333333333</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.2892606039532199</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1251,6 +1355,9 @@
       <c r="G35" t="n">
         <v>0.4</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.09557819424403458</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1274,6 +1381,9 @@
       <c r="G36" t="n">
         <v>0.3444444444444444</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.06121208484154694</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1297,6 +1407,9 @@
       <c r="G37" t="n">
         <v>0.5111111111111111</v>
       </c>
+      <c r="H37" t="n">
+        <v>-0.2760280359699026</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1319,6 +1432,9 @@
       </c>
       <c r="G38" t="n">
         <v>0.3222222222222222</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.002721639563830758</v>
       </c>
     </row>
   </sheetData>
